--- a/docs/assets/disciplinas/LOQ4233.xlsx
+++ b/docs/assets/disciplinas/LOQ4233.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-7,EM-7,EA-5,EB-5,EQD-7,EQN-11</t>
+    <t>EF-7,EM-6,EA-5,EB-4,EQD-7,EQN-11</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOQ4233.xlsx
+++ b/docs/assets/disciplinas/LOQ4233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2019</t>
+    <t>01/01/2022</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>To present to the student the concept of an organization and the foundations of its administration; to characterize the various functional areas existing in the organizations; to awaken the interest of the students for management issues.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>The Administration of Organizations. 2 - The Administrative Process. 3 - Management Processes</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
@@ -100,6 +106,9 @@
     <t>Syllabus:</t>
   </si>
   <si>
+    <t>- The Administration of organizations - defining the administration 2 - The administrative process: planning, organization, direction, control 3 - Management Processes: Marketing, Finance, People Management, Production and Operations, Research and Development, Information Technology, Logistics and Environment.</t>
+  </si>
+  <si>
     <t>Avaliação:</t>
   </si>
   <si>
@@ -124,15 +133,7 @@
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Gestão de Negócios: Visões e dimensões empresariais da oOrganização. 
-Autores: Cruz Jr, J.B., Rocha, J.A.O. e Tachizawa, T.
-Editora: ATLAS
-Gestão Empresarial - de Taylor aos nossos dias
-Autores: Pereira, M. I. , Autor: Ferreira, A. A. e Reis, A.C. F 
-Editora: THOMSON PIONEIRA
-Gestão Empresarial - Estratégias Organizacionais
-Autor: Bertero, C. O. 
-Editora: ATLAS</t>
+    <t>LEMOS, Paulo de Mattos et al. Gestão estratégica de empresas. Rio de Janeiro: Fundação Getúlio Vargas, 2014.Ludovico, Nelson. Gestão estratégica de negócios. São Paulo: Saraiva, 2018Serra, Fernando Ribeiro et al. Gestão estratégica: conceitos e casos. São Paulo: Atlas, 2014.</t>
   </si>
 </sst>
 </file>
@@ -607,99 +608,117 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4233.xlsx
+++ b/docs/assets/disciplinas/LOQ4233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar ao aluno o conceito de uma organização e os fundamentos de sua administração;Caracterizar as diversas áreas funcionais existentes nas organizações;Despertar o interesse dos alunos para questões de gestão</t>
+    <t>849935 - Humberto Felipe da Silva</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,13 +82,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>849935 - Humberto Felipe da Silva</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1 - A Administração das Organizações. 2 - O processo administrativo. 3 – Processos de Gestão</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -100,9 +97,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - A Administração das organizações - definindo a administração2 - O processo administrativo: planejamento, organização, direção, controle3 – Processos de Gestão: Marketing, Finanças, Gestão de Pessoas, Produção e Operações, Pesquisa e Desenvolvimento, Tecnologia da Informação, Logística e Meio Ambiente.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -115,25 +109,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>O sistema de avaliação será continuo com aplicação de avaliações escritas utilizando-se avaliações em papel como em sistema informacionais, ademais serão realizados seminários, projetos, entrega de trabalho em formato de artigo e Estudos de Casos.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Avaliações em diversos formatos realizadas no decorrer do semestre. O peso maior da avaliação será aplicado ao Seminário Final da Disciplina, quando serão realizadas a apresentação oral do trabalho bem como a entrega do trabalho em formato de artigo; essa avaliação representará 70% da média do semestre.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota do trabalho de recuperação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>LEMOS, Paulo de Mattos et al. Gestão estratégica de empresas. Rio de Janeiro: Fundação Getúlio Vargas, 2014.Ludovico, Nelson. Gestão estratégica de negócios. São Paulo: Saraiva, 2018Serra, Fernando Ribeiro et al. Gestão estratégica: conceitos e casos. São Paulo: Atlas, 2014.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +611,37 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,64 +655,53 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>31</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4233.xlsx
+++ b/docs/assets/disciplinas/LOQ4233.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EF-7,EM-6,EA-5,EB-4,EQD-7,EQN-11</t>
+    <t>EM-6,EA-5,EB-4,EQD-7,EQN-11</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/docs/assets/disciplinas/LOQ4233.xlsx
+++ b/docs/assets/disciplinas/LOQ4233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar ao aluno o conceito de uma organização e os fundamentos de sua administração;Caracterizar as diversas áreas funcionais existentes nas organizações;Despertar o interesse dos alunos para questões de gestão</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>To present to the student the concept of an organization and the foundations of its administration; to characterize the various functional areas existing in the organizations; to awaken the interest of the students for management issues.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>849935 - Humberto Felipe da Silva</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>To present to the student the concept of an organization and the foundations of its administration; to characterize the various functional areas existing in the organizations; to awaken the interest of the students for management issues.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1 - A Administração das Organizações. 2 - O processo administrativo. 3 – Processos de Gestão</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - A Administração das organizações - definindo a administração2 - O processo administrativo: planejamento, organização, direção, controle3 – Processos de Gestão: Marketing, Finanças, Gestão de Pessoas, Produção e Operações, Pesquisa e Desenvolvimento, Tecnologia da Informação, Logística e Meio Ambiente.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>O sistema de avaliação será continuo com aplicação de avaliações escritas utilizando-se avaliações em papel como em sistema informacionais, ademais serão realizados seminários, projetos, entrega de trabalho em formato de artigo e Estudos de Casos.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O sistema de avaliação será continuo com aplicação de avaliações escritas utilizando-se avaliações em papel como em sistema informacionais, ademais serão realizados seminários, projetos, entrega de trabalho em formato de artigo e Estudos de Casos.</t>
+    <t>Avaliações em diversos formatos realizadas no decorrer do semestre. O peso maior da avaliação será aplicado ao Seminário Final da Disciplina, quando serão realizadas a apresentação oral do trabalho bem como a entrega do trabalho em formato de artigo; essa avaliação representará 70% da média do semestre.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Avaliações em diversos formatos realizadas no decorrer do semestre. O peso maior da avaliação será aplicado ao Seminário Final da Disciplina, quando serão realizadas a apresentação oral do trabalho bem como a entrega do trabalho em formato de artigo; essa avaliação representará 70% da média do semestre.</t>
+    <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota do trabalho de recuperação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/ 2 , onde NF é a média final da segunda avaliação, MF é a média final da primeira avaliação e PR é a nota do trabalho de recuperação</t>
+    <t>LEMOS, Paulo de Mattos et al. Gestão estratégica de empresas. Rio de Janeiro: Fundação Getúlio Vargas, 2014.Ludovico, Nelson. Gestão estratégica de negócios. São Paulo: Saraiva, 2018Serra, Fernando Ribeiro et al. Gestão estratégica: conceitos e casos. São Paulo: Atlas, 2014.</t>
   </si>
 </sst>
 </file>
@@ -480,13 +489,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -611,37 +620,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -655,53 +661,64 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
